--- a/PILOT/DATA/GroupB/transcriptions_collocations_gen/612e6569f68929afb886fb5c_semantic_fluency_fullB_2024-03-16_14h45.30.873_recording_Mic_cattestresgis_trials_11_2024-03-16_15h18.22.242.xlsx
+++ b/PILOT/DATA/GroupB/transcriptions_collocations_gen/612e6569f68929afb886fb5c_semantic_fluency_fullB_2024-03-16_14h45.30.873_recording_Mic_cattestresgis_trials_11_2024-03-16_15h18.22.242.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/GroupB/transcriptions_collocations_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11331A16-F670-BF46-ACBD-0AA873C470DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AAF9F-CE14-3945-8CB7-A8BDEC75AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="17000" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="10000" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>rabbits</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>plants</t>
+  </si>
+  <si>
+    <t>deer</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>15.9</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>21</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>43.5</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>46.7</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>48.7</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>51.7</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>54.9</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>58.3</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>63</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>64.599999999999994</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>66.099999999999994</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>67.3</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>69.900000000000006</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>73.599999999999994</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>75.8</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>82.8</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>86.4</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>87.4</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>88.2</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>90.9</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>91.6</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>92.5</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>92.8</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>95.8</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>96.4</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>98.6</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>99.1</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>99.6</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>101.4</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>104.6</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>105.4</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>106.1</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>115.1</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>118.3</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58">
         <v>119</v>
